--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pf4-Thbd.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pf4-Thbd.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6462206666666667</v>
+        <v>0.6122626666666666</v>
       </c>
       <c r="H2">
-        <v>1.938662</v>
+        <v>1.836788</v>
       </c>
       <c r="I2">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="J2">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.32293066666667</v>
+        <v>41.60833666666667</v>
       </c>
       <c r="N2">
-        <v>132.968792</v>
+        <v>124.82501</v>
       </c>
       <c r="O2">
-        <v>0.6264651541551962</v>
+        <v>0.5886423873735626</v>
       </c>
       <c r="P2">
-        <v>0.6264651541551961</v>
+        <v>0.5886423873735626</v>
       </c>
       <c r="Q2">
-        <v>28.64239380403378</v>
+        <v>25.47523116309777</v>
       </c>
       <c r="R2">
-        <v>257.7815442363041</v>
+        <v>229.27708046788</v>
       </c>
       <c r="S2">
-        <v>0.002586137531858775</v>
+        <v>0.003990448288491105</v>
       </c>
       <c r="T2">
-        <v>0.002586137531858774</v>
+        <v>0.003990448288491105</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6462206666666667</v>
+        <v>0.6122626666666666</v>
       </c>
       <c r="H3">
-        <v>1.938662</v>
+        <v>1.836788</v>
       </c>
       <c r="I3">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="J3">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>53.145803</v>
       </c>
       <c r="O3">
-        <v>0.2503895325235164</v>
+        <v>0.2506218293658061</v>
       </c>
       <c r="P3">
-        <v>0.2503895325235164</v>
+        <v>0.2506218293658061</v>
       </c>
       <c r="Q3">
-        <v>11.44797208173178</v>
+        <v>10.84639702230711</v>
       </c>
       <c r="R3">
-        <v>103.031748735586</v>
+        <v>97.617573200764</v>
       </c>
       <c r="S3">
-        <v>0.001033643712421428</v>
+        <v>0.001698983069353132</v>
       </c>
       <c r="T3">
-        <v>0.001033643712421428</v>
+        <v>0.001698983069353132</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6462206666666667</v>
+        <v>0.6122626666666666</v>
       </c>
       <c r="H4">
-        <v>1.938662</v>
+        <v>1.836788</v>
       </c>
       <c r="I4">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="J4">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.136894000000001</v>
+        <v>6.935318333333334</v>
       </c>
       <c r="N4">
-        <v>12.410682</v>
+        <v>20.805955</v>
       </c>
       <c r="O4">
-        <v>0.05847131266937523</v>
+        <v>0.09811549001908282</v>
       </c>
       <c r="P4">
-        <v>0.05847131266937522</v>
+        <v>0.09811549001908279</v>
       </c>
       <c r="Q4">
-        <v>2.673346398609334</v>
+        <v>4.246236496948889</v>
       </c>
       <c r="R4">
-        <v>24.060117587484</v>
+        <v>38.21612847254</v>
       </c>
       <c r="S4">
-        <v>0.0002413779205887959</v>
+        <v>0.0006651318315149581</v>
       </c>
       <c r="T4">
-        <v>0.0002413779205887959</v>
+        <v>0.0006651318315149579</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6462206666666667</v>
+        <v>0.6122626666666666</v>
       </c>
       <c r="H5">
-        <v>1.938662</v>
+        <v>1.836788</v>
       </c>
       <c r="I5">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="J5">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.575739333333334</v>
+        <v>4.426331333333334</v>
       </c>
       <c r="N5">
-        <v>13.727218</v>
+        <v>13.278994</v>
       </c>
       <c r="O5">
-        <v>0.06467400065191224</v>
+        <v>0.06262029324154843</v>
       </c>
       <c r="P5">
-        <v>0.06467400065191224</v>
+        <v>0.06262029324154841</v>
       </c>
       <c r="Q5">
-        <v>2.956937322479556</v>
+        <v>2.710077425696889</v>
       </c>
       <c r="R5">
-        <v>26.612435902316</v>
+        <v>24.390696831272</v>
       </c>
       <c r="S5">
-        <v>0.0002669835014956542</v>
+        <v>0.0004245073874232709</v>
       </c>
       <c r="T5">
-        <v>0.0002669835014956542</v>
+        <v>0.0004245073874232708</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.958761</v>
       </c>
       <c r="I6">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="J6">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.32293066666667</v>
+        <v>41.60833666666667</v>
       </c>
       <c r="N6">
-        <v>132.968792</v>
+        <v>124.82501</v>
       </c>
       <c r="O6">
-        <v>0.6264651541551962</v>
+        <v>0.5886423873735626</v>
       </c>
       <c r="P6">
-        <v>0.6264651541551961</v>
+        <v>0.5886423873735626</v>
       </c>
       <c r="Q6">
-        <v>14.165032442968</v>
+        <v>13.29748349029</v>
       </c>
       <c r="R6">
-        <v>127.485291986712</v>
+        <v>119.67735141261</v>
       </c>
       <c r="S6">
-        <v>0.001278968590802549</v>
+        <v>0.002082922031024822</v>
       </c>
       <c r="T6">
-        <v>0.001278968590802548</v>
+        <v>0.002082922031024822</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.958761</v>
       </c>
       <c r="I7">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="J7">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>53.145803</v>
       </c>
       <c r="O7">
-        <v>0.2503895325235164</v>
+        <v>0.2506218293658061</v>
       </c>
       <c r="P7">
-        <v>0.2503895325235164</v>
+        <v>0.2506218293658061</v>
       </c>
       <c r="Q7">
         <v>5.661569247787</v>
@@ -883,10 +883,10 @@
         <v>50.954123230083</v>
       </c>
       <c r="S7">
-        <v>0.0005111862095429117</v>
+        <v>0.0008868300024586826</v>
       </c>
       <c r="T7">
-        <v>0.0005111862095429117</v>
+        <v>0.0008868300024586826</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.958761</v>
       </c>
       <c r="I8">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="J8">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.136894000000001</v>
+        <v>6.935318333333334</v>
       </c>
       <c r="N8">
-        <v>12.410682</v>
+        <v>20.805955</v>
       </c>
       <c r="O8">
-        <v>0.05847131266937523</v>
+        <v>0.09811549001908282</v>
       </c>
       <c r="P8">
-        <v>0.05847131266937522</v>
+        <v>0.09811549001908279</v>
       </c>
       <c r="Q8">
-        <v>1.322097542778</v>
+        <v>2.216437580195</v>
       </c>
       <c r="R8">
-        <v>11.898877885002</v>
+        <v>19.947938221755</v>
       </c>
       <c r="S8">
-        <v>0.0001193729162286332</v>
+        <v>0.0003471834854730719</v>
       </c>
       <c r="T8">
-        <v>0.0001193729162286332</v>
+        <v>0.0003471834854730718</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.958761</v>
       </c>
       <c r="I9">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="J9">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.575739333333334</v>
+        <v>4.426331333333334</v>
       </c>
       <c r="N9">
-        <v>13.727218</v>
+        <v>13.278994</v>
       </c>
       <c r="O9">
-        <v>0.06467400065191224</v>
+        <v>0.06262029324154843</v>
       </c>
       <c r="P9">
-        <v>0.06467400065191224</v>
+        <v>0.06262029324154841</v>
       </c>
       <c r="Q9">
-        <v>1.462346806322</v>
+        <v>1.414597951826</v>
       </c>
       <c r="R9">
-        <v>13.161121256898</v>
+        <v>12.731381566434</v>
       </c>
       <c r="S9">
-        <v>0.0001320360995766539</v>
+        <v>0.0002215830717934365</v>
       </c>
       <c r="T9">
-        <v>0.0001320360995766539</v>
+        <v>0.0002215830717934365</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>2.697193666666667</v>
+        <v>0.115957</v>
       </c>
       <c r="H10">
-        <v>8.091581</v>
+        <v>0.347871</v>
       </c>
       <c r="I10">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="J10">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>44.32293066666667</v>
+        <v>41.60833666666667</v>
       </c>
       <c r="N10">
-        <v>132.968792</v>
+        <v>124.82501</v>
       </c>
       <c r="O10">
-        <v>0.6264651541551962</v>
+        <v>0.5886423873735626</v>
       </c>
       <c r="P10">
-        <v>0.6264651541551961</v>
+        <v>0.5886423873735626</v>
       </c>
       <c r="Q10">
-        <v>119.5475278822391</v>
+        <v>4.824777894856666</v>
       </c>
       <c r="R10">
-        <v>1075.927750940152</v>
+        <v>43.42300105371</v>
       </c>
       <c r="S10">
-        <v>0.01079401221882688</v>
+        <v>0.0007557547395593226</v>
       </c>
       <c r="T10">
-        <v>0.01079401221882688</v>
+        <v>0.0007557547395593227</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>2.697193666666667</v>
+        <v>0.115957</v>
       </c>
       <c r="H11">
-        <v>8.091581</v>
+        <v>0.347871</v>
       </c>
       <c r="I11">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="J11">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>53.145803</v>
       </c>
       <c r="O11">
-        <v>0.2503895325235164</v>
+        <v>0.2506218293658061</v>
       </c>
       <c r="P11">
-        <v>0.2503895325235164</v>
+        <v>0.2506218293658061</v>
       </c>
       <c r="Q11">
-        <v>47.78150775383811</v>
+        <v>2.054209292823666</v>
       </c>
       <c r="R11">
-        <v>430.033569784543</v>
+        <v>18.487883635413</v>
       </c>
       <c r="S11">
-        <v>0.004314218684948015</v>
+        <v>0.0003217719950908561</v>
       </c>
       <c r="T11">
-        <v>0.004314218684948015</v>
+        <v>0.0003217719950908562</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>2.697193666666667</v>
+        <v>0.115957</v>
       </c>
       <c r="H12">
-        <v>8.091581</v>
+        <v>0.347871</v>
       </c>
       <c r="I12">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="J12">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.136894000000001</v>
+        <v>6.935318333333334</v>
       </c>
       <c r="N12">
-        <v>12.410682</v>
+        <v>20.805955</v>
       </c>
       <c r="O12">
-        <v>0.05847131266937523</v>
+        <v>0.09811549001908282</v>
       </c>
       <c r="P12">
-        <v>0.05847131266937522</v>
+        <v>0.09811549001908279</v>
       </c>
       <c r="Q12">
-        <v>11.15800429647133</v>
+        <v>0.8041987079783334</v>
       </c>
       <c r="R12">
-        <v>100.422038668242</v>
+        <v>7.237788371805</v>
       </c>
       <c r="S12">
-        <v>0.001007462361183027</v>
+        <v>0.0001259699406577896</v>
       </c>
       <c r="T12">
-        <v>0.001007462361183027</v>
+        <v>0.0001259699406577896</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>2.697193666666667</v>
+        <v>0.115957</v>
       </c>
       <c r="H13">
-        <v>8.091581</v>
+        <v>0.347871</v>
       </c>
       <c r="I13">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="J13">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.575739333333334</v>
+        <v>4.426331333333334</v>
       </c>
       <c r="N13">
-        <v>13.727218</v>
+        <v>13.278994</v>
       </c>
       <c r="O13">
-        <v>0.06467400065191224</v>
+        <v>0.06262029324154843</v>
       </c>
       <c r="P13">
-        <v>0.06467400065191224</v>
+        <v>0.06262029324154841</v>
       </c>
       <c r="Q13">
-        <v>12.34165515018422</v>
+        <v>0.5132641024193333</v>
       </c>
       <c r="R13">
-        <v>111.074896351658</v>
+        <v>4.619376921774</v>
       </c>
       <c r="S13">
-        <v>0.001114334849507396</v>
+        <v>8.039785177729855E-05</v>
       </c>
       <c r="T13">
-        <v>0.001114334849507396</v>
+        <v>8.039785177729855E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>152.8772926666667</v>
+        <v>89.26880233333334</v>
       </c>
       <c r="H14">
-        <v>458.631878</v>
+        <v>267.806407</v>
       </c>
       <c r="I14">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053822</v>
       </c>
       <c r="J14">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053823</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>44.32293066666667</v>
+        <v>41.60833666666667</v>
       </c>
       <c r="N14">
-        <v>132.968792</v>
+        <v>124.82501</v>
       </c>
       <c r="O14">
-        <v>0.6264651541551962</v>
+        <v>0.5886423873735626</v>
       </c>
       <c r="P14">
-        <v>0.6264651541551961</v>
+        <v>0.5886423873735626</v>
       </c>
       <c r="Q14">
-        <v>6775.969643372377</v>
+        <v>3714.326381315453</v>
       </c>
       <c r="R14">
-        <v>60983.72679035139</v>
+        <v>33428.93743183908</v>
       </c>
       <c r="S14">
-        <v>0.611806035813708</v>
+        <v>0.5818132623144873</v>
       </c>
       <c r="T14">
-        <v>0.6118060358137078</v>
+        <v>0.5818132623144874</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>152.8772926666667</v>
+        <v>89.26880233333334</v>
       </c>
       <c r="H15">
-        <v>458.631878</v>
+        <v>267.806407</v>
       </c>
       <c r="I15">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053822</v>
       </c>
       <c r="J15">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053823</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>53.145803</v>
       </c>
       <c r="O15">
-        <v>0.2503895325235164</v>
+        <v>0.2506218293658061</v>
       </c>
       <c r="P15">
-        <v>0.2503895325235164</v>
+        <v>0.2506218293658061</v>
       </c>
       <c r="Q15">
-        <v>2708.262159745337</v>
+        <v>1581.420727617758</v>
       </c>
       <c r="R15">
-        <v>24374.35943770804</v>
+        <v>14232.78654855982</v>
       </c>
       <c r="S15">
-        <v>0.244530483916604</v>
+        <v>0.2477142442989035</v>
       </c>
       <c r="T15">
-        <v>0.244530483916604</v>
+        <v>0.2477142442989035</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>152.8772926666667</v>
+        <v>89.26880233333334</v>
       </c>
       <c r="H16">
-        <v>458.631878</v>
+        <v>267.806407</v>
       </c>
       <c r="I16">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053822</v>
       </c>
       <c r="J16">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053823</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.136894000000001</v>
+        <v>6.935318333333334</v>
       </c>
       <c r="N16">
-        <v>12.410682</v>
+        <v>20.805955</v>
       </c>
       <c r="O16">
-        <v>0.05847131266937523</v>
+        <v>0.09811549001908282</v>
       </c>
       <c r="P16">
-        <v>0.05847131266937522</v>
+        <v>0.09811549001908279</v>
       </c>
       <c r="Q16">
-        <v>632.4371547689775</v>
+        <v>619.1075614170762</v>
       </c>
       <c r="R16">
-        <v>5691.934392920797</v>
+        <v>5571.968052753686</v>
       </c>
       <c r="S16">
-        <v>0.05710309947137477</v>
+        <v>0.09697720476143699</v>
       </c>
       <c r="T16">
-        <v>0.05710309947137476</v>
+        <v>0.09697720476143698</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>152.8772926666667</v>
+        <v>89.26880233333334</v>
       </c>
       <c r="H17">
-        <v>458.631878</v>
+        <v>267.806407</v>
       </c>
       <c r="I17">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053822</v>
       </c>
       <c r="J17">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053823</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.575739333333334</v>
+        <v>4.426331333333334</v>
       </c>
       <c r="N17">
-        <v>13.727218</v>
+        <v>13.278994</v>
       </c>
       <c r="O17">
-        <v>0.06467400065191224</v>
+        <v>0.06262029324154843</v>
       </c>
       <c r="P17">
-        <v>0.06467400065191224</v>
+        <v>0.06262029324154841</v>
       </c>
       <c r="Q17">
-        <v>699.5266412283784</v>
+        <v>395.1332968571731</v>
       </c>
       <c r="R17">
-        <v>6295.739771055405</v>
+        <v>3556.199671714559</v>
       </c>
       <c r="S17">
-        <v>0.06316064620133253</v>
+        <v>0.06189380493055442</v>
       </c>
       <c r="T17">
-        <v>0.06316064620133253</v>
+        <v>0.06189380493055441</v>
       </c>
     </row>
   </sheetData>
